--- a/iselUssSyncV2/OutputWSLorientation/20220524_1345_D50L474W30Q17.0U0.32H66.5G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1345_D50L474W30Q17.0U0.32H66.5G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.45060187744003283</v>
+        <v>0.25763089911651471</v>
       </c>
       <c r="P2" s="0">
         <v>130.30922333333328</v>
@@ -356,10 +356,10 @@
         <v>1.2783334808999995</v>
       </c>
       <c r="R2" s="0">
-        <v>1.0326155692793866</v>
+        <v>1.8060664143421188</v>
       </c>
       <c r="S2" s="0">
-        <v>0.31168292496175415</v>
+        <v>0.99534466052855053</v>
       </c>
       <c r="T2" s="0">
         <v>0.036140283158818703</v>
@@ -383,16 +383,16 @@
         <v>150000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.2379568146469919</v>
+        <v>0.70779981884865939</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.101390799822803</v>
+        <v>1.2843123910678091</v>
       </c>
       <c r="AC2" s="0">
-        <v>1.0248420790909836</v>
+        <v>0.58595181136098629</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.3743091848218771</v>
+        <v>0.68715459241093857</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>5.1262328789137861</v>
+        <v>1.8702642024287954</v>
       </c>
     </row>
   </sheetData>
